--- a/biology/Botanique/Frêne_à_pétiole_large/Frêne_à_pétiole_large.xlsx
+++ b/biology/Botanique/Frêne_à_pétiole_large/Frêne_à_pétiole_large.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne_%C3%A0_p%C3%A9tiole_large</t>
+          <t>Frêne_à_pétiole_large</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fraxinus platypoda
 Le Frêne à pétiole large (Fraxinus platypoda Oliver) est une espèce d'arbre originaire de l'est de la Chine et du Japon, de la famille des Oleaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne_%C3%A0_p%C3%A9tiole_large</t>
+          <t>Frêne_à_pétiole_large</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fraxinus inopinata Ingelsheim
 Fraxinus spaethiana Ingelsheim</t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne_%C3%A0_p%C3%A9tiole_large</t>
+          <t>Frêne_à_pétiole_large</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce préfère les sols profonds, frais et assez divisés. Toutefois, il aime les endroits ensoleillés.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne_%C3%A0_p%C3%A9tiole_large</t>
+          <t>Frêne_à_pétiole_large</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est un arbre à feuillage caduc, poussant à une hauteur variant entre 25 et 30 m, avec un tronc droit dont le rhytidome lisse de couleur gris verdâtre, fonce et se fissure en vieillissant.
 Les rameaux sont pubescents et glabres.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fr%C3%AAne_%C3%A0_p%C3%A9tiole_large</t>
+          <t>Frêne_à_pétiole_large</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La rusticité mais aussi la beauté de son feuillage font de celui-ci, un arbre pouvant être planté en sujet isolé dans les parcs. Il peut être aussi utilisé comme arbre d’alignement le long des routes.
 </t>
